--- a/Budburst Chill Datasheet 2016-01-25.xlsx
+++ b/Budburst Chill Datasheet 2016-01-25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -3532,7 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3642,11 +3642,11 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I2,1))</f>
+        <f t="shared" ref="K2:K65" si="0">CONCATENATE("chill",LEFT(I2,1))</f>
         <v>chill1</v>
       </c>
       <c r="L2" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I2,1))</f>
+        <f t="shared" ref="L2:L65" si="1">CONCATENATE("time",RIGHT(I2,1))</f>
         <v>time1</v>
       </c>
       <c r="M2" s="19"/>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I3,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I3,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M3" s="12"/>
@@ -3730,11 +3730,11 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I4,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I4,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M4" s="12"/>
@@ -3774,11 +3774,11 @@
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I5,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L5" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I5,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M5" s="19"/>
@@ -3818,11 +3818,11 @@
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I6,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I6,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M6" s="12"/>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I7,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I7,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M7" s="12"/>
@@ -3906,11 +3906,11 @@
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I8,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L8" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I8,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M8" s="19"/>
@@ -3950,11 +3950,11 @@
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I9,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I9,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M9" s="12"/>
@@ -3994,11 +3994,11 @@
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I10,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I10,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M10" s="12"/>
@@ -4038,11 +4038,11 @@
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I11,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L11" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I11,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M11" s="19"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I12,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I12,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M12" s="12"/>
@@ -4126,11 +4126,11 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I13,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I13,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M13" s="12"/>
@@ -4170,11 +4170,11 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I14,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L14" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I14,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M14" s="19"/>
@@ -4214,11 +4214,11 @@
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I15,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I15,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M15" s="12"/>
@@ -4258,11 +4258,11 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I16,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I16,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M16" s="12"/>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I17,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L17" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I17,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M17" s="19"/>
@@ -4346,11 +4346,11 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I18,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L18" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I18,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M18" s="12"/>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I19,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L19" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I19,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M19" s="12"/>
@@ -4434,11 +4434,11 @@
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I20,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L20" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I20,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M20" s="19"/>
@@ -4478,11 +4478,11 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I21,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L21" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I21,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M21" s="12"/>
@@ -4522,11 +4522,11 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I22,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L22" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I22,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M22" s="12"/>
@@ -4566,11 +4566,11 @@
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I23,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L23" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I23,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M23" s="19"/>
@@ -4610,11 +4610,11 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I24,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L24" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I24,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M24" s="12"/>
@@ -4654,11 +4654,11 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I25,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L25" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I25,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M25" s="12"/>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I26,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L26" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I26,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M26" s="19"/>
@@ -4742,11 +4742,11 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I27,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L27" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I27,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M27" s="12"/>
@@ -4786,11 +4786,11 @@
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I28,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L28" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I28,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M28" s="12"/>
@@ -4830,11 +4830,11 @@
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I29,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L29" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I29,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M29" s="19"/>
@@ -4874,11 +4874,11 @@
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I30,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L30" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I30,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M30" s="12"/>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I31,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L31" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I31,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M31" s="12"/>
@@ -4962,11 +4962,11 @@
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I32,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L32" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I32,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M32" s="19"/>
@@ -5006,11 +5006,11 @@
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I33,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L33" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I33,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M33" s="12"/>
@@ -5050,11 +5050,11 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I34,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L34" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I34,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M34" s="12"/>
@@ -5094,11 +5094,11 @@
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I35,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L35" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I35,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M35" s="19"/>
@@ -5138,11 +5138,11 @@
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I36,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L36" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I36,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M36" s="12"/>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I37,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L37" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I37,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M37" s="12"/>
@@ -5226,11 +5226,11 @@
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I38,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L38" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I38,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M38" s="19"/>
@@ -5270,11 +5270,11 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I39,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L39" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I39,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M39" s="12"/>
@@ -5314,11 +5314,11 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I40,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L40" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I40,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M40" s="12"/>
@@ -5358,11 +5358,11 @@
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I41,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L41" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I41,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M41" s="19"/>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I42,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L42" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I42,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M42" s="12"/>
@@ -5446,11 +5446,11 @@
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I43,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L43" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I43,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M43" s="12"/>
@@ -5490,11 +5490,11 @@
       </c>
       <c r="J44" s="19"/>
       <c r="K44" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I44,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L44" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I44,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M44" s="19"/>
@@ -5534,11 +5534,11 @@
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I45,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L45" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I45,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M45" s="12"/>
@@ -5578,11 +5578,11 @@
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I46,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L46" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I46,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M46" s="12"/>
@@ -5622,11 +5622,11 @@
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I47,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L47" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I47,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M47" s="19"/>
@@ -5666,11 +5666,11 @@
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I48,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L48" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I48,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M48" s="12"/>
@@ -5710,11 +5710,11 @@
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I49,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L49" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I49,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M49" s="12"/>
@@ -5754,11 +5754,11 @@
       </c>
       <c r="J50" s="19"/>
       <c r="K50" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I50,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L50" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I50,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M50" s="19"/>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I51,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L51" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I51,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M51" s="12"/>
@@ -5842,11 +5842,11 @@
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I52,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L52" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I52,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M52" s="12"/>
@@ -5886,11 +5886,11 @@
       </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I53,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L53" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I53,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M53" s="19"/>
@@ -5930,11 +5930,11 @@
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I54,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L54" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I54,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M54" s="12"/>
@@ -5974,11 +5974,11 @@
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I55,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L55" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I55,1))</f>
+        <f t="shared" si="1"/>
         <v>time1</v>
       </c>
       <c r="M55" s="12"/>
@@ -6018,11 +6018,11 @@
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I56,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L56" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I56,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M56" s="19"/>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I57,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L57" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I57,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M57" s="12"/>
@@ -6106,11 +6106,11 @@
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I58,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L58" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I58,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M58" s="12"/>
@@ -6150,11 +6150,11 @@
       </c>
       <c r="J59" s="19"/>
       <c r="K59" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I59,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L59" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I59,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M59" s="19"/>
@@ -6193,11 +6193,11 @@
         <v>16</v>
       </c>
       <c r="K60" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I60,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L60" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I60,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
     </row>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I61,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L61" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I61,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M61" s="19"/>
@@ -6275,11 +6275,11 @@
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I62,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L62" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I62,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M62" s="12"/>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I63,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L63" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I63,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M63" s="12"/>
@@ -6363,11 +6363,11 @@
       </c>
       <c r="J64" s="19"/>
       <c r="K64" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I64,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L64" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I64,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M64" s="19"/>
@@ -6407,11 +6407,11 @@
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I65,1))</f>
+        <f t="shared" si="0"/>
         <v>chill1</v>
       </c>
       <c r="L65" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I65,1))</f>
+        <f t="shared" si="1"/>
         <v>time2</v>
       </c>
       <c r="M65" s="19"/>
@@ -6451,11 +6451,11 @@
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I66,1))</f>
+        <f t="shared" ref="K66:K129" si="2">CONCATENATE("chill",LEFT(I66,1))</f>
         <v>chill1</v>
       </c>
       <c r="L66" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I66,1))</f>
+        <f t="shared" ref="L66:L129" si="3">CONCATENATE("time",RIGHT(I66,1))</f>
         <v>time2</v>
       </c>
       <c r="M66" s="12"/>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I67,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L67" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I67,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M67" s="12"/>
@@ -6539,11 +6539,11 @@
       </c>
       <c r="J68" s="19"/>
       <c r="K68" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I68,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L68" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I68,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M68" s="19"/>
@@ -6583,11 +6583,11 @@
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I69,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L69" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I69,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M69" s="12"/>
@@ -6627,11 +6627,11 @@
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I70,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L70" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I70,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M70" s="12"/>
@@ -6671,11 +6671,11 @@
       </c>
       <c r="J71" s="19"/>
       <c r="K71" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I71,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L71" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I71,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M71" s="19"/>
@@ -6715,11 +6715,11 @@
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I72,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L72" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I72,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M72" s="12"/>
@@ -6759,11 +6759,11 @@
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I73,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L73" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I73,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M73" s="12"/>
@@ -6803,11 +6803,11 @@
       </c>
       <c r="J74" s="19"/>
       <c r="K74" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I74,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L74" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I74,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M74" s="19"/>
@@ -6847,11 +6847,11 @@
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I75,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L75" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I75,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M75" s="12"/>
@@ -6891,11 +6891,11 @@
       </c>
       <c r="J76" s="12"/>
       <c r="K76" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I76,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L76" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I76,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M76" s="12"/>
@@ -6935,11 +6935,11 @@
       </c>
       <c r="J77" s="19"/>
       <c r="K77" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I77,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L77" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I77,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M77" s="19"/>
@@ -6979,11 +6979,11 @@
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I78,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L78" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I78,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M78" s="12"/>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I79,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L79" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I79,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M79" s="12"/>
@@ -7067,11 +7067,11 @@
       </c>
       <c r="J80" s="19"/>
       <c r="K80" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I80,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L80" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I80,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M80" s="19"/>
@@ -7111,11 +7111,11 @@
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I81,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L81" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I81,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M81" s="12"/>
@@ -7155,11 +7155,11 @@
       </c>
       <c r="J82" s="19"/>
       <c r="K82" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I82,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L82" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I82,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M82" s="19"/>
@@ -7199,11 +7199,11 @@
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I83,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L83" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I83,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M83" s="12"/>
@@ -7243,11 +7243,11 @@
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I84,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L84" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I84,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M84" s="12"/>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="J85" s="19"/>
       <c r="K85" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I85,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L85" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I85,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M85" s="19"/>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I86,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L86" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I86,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M86" s="12"/>
@@ -7375,11 +7375,11 @@
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I87,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L87" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I87,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M87" s="12"/>
@@ -7419,11 +7419,11 @@
       </c>
       <c r="J88" s="19"/>
       <c r="K88" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I88,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L88" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I88,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M88" s="19"/>
@@ -7463,11 +7463,11 @@
       </c>
       <c r="J89" s="12"/>
       <c r="K89" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I89,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L89" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I89,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M89" s="12"/>
@@ -7507,11 +7507,11 @@
       </c>
       <c r="J90" s="12"/>
       <c r="K90" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I90,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L90" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I90,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M90" s="12"/>
@@ -7551,11 +7551,11 @@
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I91,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L91" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I91,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M91" s="19"/>
@@ -7595,11 +7595,11 @@
       </c>
       <c r="J92" s="12"/>
       <c r="K92" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I92,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L92" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I92,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M92" s="12"/>
@@ -7639,11 +7639,11 @@
       </c>
       <c r="J93" s="19"/>
       <c r="K93" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I93,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L93" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I93,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M93" s="19"/>
@@ -7683,11 +7683,11 @@
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I94,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L94" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I94,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M94" s="12"/>
@@ -7727,11 +7727,11 @@
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I95,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L95" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I95,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M95" s="12"/>
@@ -7771,11 +7771,11 @@
       </c>
       <c r="J96" s="19"/>
       <c r="K96" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I96,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L96" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I96,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M96" s="19"/>
@@ -7817,11 +7817,11 @@
         <v>4</v>
       </c>
       <c r="K97" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I97,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L97" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I97,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M97" s="12"/>
@@ -7861,11 +7861,11 @@
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I98,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L98" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I98,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M98" s="12"/>
@@ -7907,11 +7907,11 @@
         <v>1</v>
       </c>
       <c r="K99" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I99,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L99" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I99,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M99" s="19"/>
@@ -7953,11 +7953,11 @@
         <v>1</v>
       </c>
       <c r="K100" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I100,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L100" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I100,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M100" s="12"/>
@@ -7999,11 +7999,11 @@
         <v>1</v>
       </c>
       <c r="K101" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I101,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L101" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I101,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M101" s="12"/>
@@ -8043,11 +8043,11 @@
       </c>
       <c r="J102" s="19"/>
       <c r="K102" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I102,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L102" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I102,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M102" s="19"/>
@@ -8087,11 +8087,11 @@
       </c>
       <c r="J103" s="12"/>
       <c r="K103" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I103,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L103" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I103,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M103" s="12"/>
@@ -8131,11 +8131,11 @@
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I104,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L104" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I104,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M104" s="12"/>
@@ -8177,11 +8177,11 @@
         <v>2</v>
       </c>
       <c r="K105" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I105,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L105" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I105,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M105" s="19"/>
@@ -8223,11 +8223,11 @@
         <v>2</v>
       </c>
       <c r="K106" s="17" t="str">
-        <f>CONCATENATE("chill",LEFT(I106,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L106" s="17" t="str">
-        <f>CONCATENATE("time",RIGHT(I106,1))</f>
+        <f t="shared" si="3"/>
         <v>time2</v>
       </c>
       <c r="M106" s="17"/>
@@ -8267,11 +8267,11 @@
       </c>
       <c r="J107" s="19"/>
       <c r="K107" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I107,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L107" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I107,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M107" s="19"/>
@@ -8311,11 +8311,11 @@
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I108,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L108" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I108,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M108" s="12"/>
@@ -8355,11 +8355,11 @@
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I109,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L109" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I109,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M109" s="12"/>
@@ -8399,11 +8399,11 @@
       </c>
       <c r="J110" s="19"/>
       <c r="K110" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I110,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L110" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I110,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M110" s="19"/>
@@ -8443,11 +8443,11 @@
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I111,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L111" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I111,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M111" s="12"/>
@@ -8487,11 +8487,11 @@
       </c>
       <c r="J112" s="19"/>
       <c r="K112" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I112,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L112" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I112,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M112" s="19"/>
@@ -8531,11 +8531,11 @@
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I113,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L113" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I113,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M113" s="12"/>
@@ -8575,11 +8575,11 @@
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I114,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L114" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I114,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M114" s="12"/>
@@ -8619,11 +8619,11 @@
       </c>
       <c r="J115" s="19"/>
       <c r="K115" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I115,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L115" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I115,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M115" s="19"/>
@@ -8663,11 +8663,11 @@
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I116,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L116" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I116,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M116" s="12"/>
@@ -8707,11 +8707,11 @@
       </c>
       <c r="J117" s="19"/>
       <c r="K117" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I117,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L117" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I117,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M117" s="19"/>
@@ -8751,11 +8751,11 @@
       </c>
       <c r="J118" s="12"/>
       <c r="K118" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I118,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L118" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I118,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M118" s="12"/>
@@ -8795,11 +8795,11 @@
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I119,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L119" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I119,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M119" s="12"/>
@@ -8839,11 +8839,11 @@
       </c>
       <c r="J120" s="19"/>
       <c r="K120" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I120,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L120" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I120,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M120" s="19"/>
@@ -8883,11 +8883,11 @@
       </c>
       <c r="J121" s="12"/>
       <c r="K121" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I121,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L121" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I121,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M121" s="12"/>
@@ -8927,11 +8927,11 @@
       </c>
       <c r="J122" s="12"/>
       <c r="K122" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I122,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L122" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I122,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M122" s="12"/>
@@ -8971,11 +8971,11 @@
       </c>
       <c r="J123" s="19"/>
       <c r="K123" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I123,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L123" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I123,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M123" s="19"/>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I124,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L124" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I124,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M124" s="12"/>
@@ -9059,11 +9059,11 @@
       </c>
       <c r="J125" s="19"/>
       <c r="K125" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I125,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L125" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I125,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M125" s="19"/>
@@ -9103,11 +9103,11 @@
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I126,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L126" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I126,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M126" s="12"/>
@@ -9147,11 +9147,11 @@
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I127,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L127" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I127,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M127" s="12"/>
@@ -9191,11 +9191,11 @@
       </c>
       <c r="J128" s="19"/>
       <c r="K128" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I128,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L128" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I128,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M128" s="19"/>
@@ -9235,11 +9235,11 @@
       </c>
       <c r="J129" s="12"/>
       <c r="K129" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I129,1))</f>
+        <f t="shared" si="2"/>
         <v>chill1</v>
       </c>
       <c r="L129" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I129,1))</f>
+        <f t="shared" si="3"/>
         <v>time3</v>
       </c>
       <c r="M129" s="12"/>
@@ -9279,11 +9279,11 @@
       </c>
       <c r="J130" s="12"/>
       <c r="K130" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I130,1))</f>
+        <f t="shared" ref="K130:K193" si="4">CONCATENATE("chill",LEFT(I130,1))</f>
         <v>chill1</v>
       </c>
       <c r="L130" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I130,1))</f>
+        <f t="shared" ref="L130:L193" si="5">CONCATENATE("time",RIGHT(I130,1))</f>
         <v>time3</v>
       </c>
       <c r="M130" s="12"/>
@@ -9323,11 +9323,11 @@
       </c>
       <c r="J131" s="19"/>
       <c r="K131" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I131,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L131" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I131,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M131" s="19"/>
@@ -9367,11 +9367,11 @@
       </c>
       <c r="J132" s="12"/>
       <c r="K132" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I132,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L132" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I132,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M132" s="12"/>
@@ -9411,11 +9411,11 @@
       </c>
       <c r="J133" s="19"/>
       <c r="K133" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I133,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L133" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I133,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M133" s="19"/>
@@ -9455,11 +9455,11 @@
       </c>
       <c r="J134" s="12"/>
       <c r="K134" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I134,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L134" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I134,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M134" s="12"/>
@@ -9499,11 +9499,11 @@
       </c>
       <c r="J135" s="12"/>
       <c r="K135" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I135,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L135" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I135,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M135" s="12"/>
@@ -9543,11 +9543,11 @@
       </c>
       <c r="J136" s="19"/>
       <c r="K136" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I136,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L136" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I136,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M136" s="19"/>
@@ -9587,11 +9587,11 @@
       </c>
       <c r="J137" s="19"/>
       <c r="K137" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I137,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L137" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I137,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M137" s="19"/>
@@ -9631,11 +9631,11 @@
       </c>
       <c r="J138" s="17"/>
       <c r="K138" s="17" t="str">
-        <f>CONCATENATE("chill",LEFT(I138,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L138" s="17" t="str">
-        <f>CONCATENATE("time",RIGHT(I138,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M138" s="17"/>
@@ -9675,11 +9675,11 @@
       </c>
       <c r="J139" s="19"/>
       <c r="K139" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I139,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L139" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I139,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M139" s="19"/>
@@ -9719,11 +9719,11 @@
       </c>
       <c r="J140" s="12"/>
       <c r="K140" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I140,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L140" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I140,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M140" s="12"/>
@@ -9763,11 +9763,11 @@
       </c>
       <c r="J141" s="12"/>
       <c r="K141" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I141,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L141" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I141,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M141" s="12"/>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="J142" s="19"/>
       <c r="K142" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I142,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L142" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I142,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M142" s="19"/>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="J143" s="12"/>
       <c r="K143" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I143,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L143" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I143,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M143" s="12"/>
@@ -9895,11 +9895,11 @@
       </c>
       <c r="J144" s="12"/>
       <c r="K144" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I144,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L144" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I144,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M144" s="12"/>
@@ -9939,11 +9939,11 @@
       </c>
       <c r="J145" s="19"/>
       <c r="K145" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I145,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L145" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I145,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M145" s="19"/>
@@ -9983,11 +9983,11 @@
       </c>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I146,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L146" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I146,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M146" s="12"/>
@@ -10027,11 +10027,11 @@
       </c>
       <c r="J147" s="12"/>
       <c r="K147" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I147,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L147" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I147,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M147" s="12"/>
@@ -10071,11 +10071,11 @@
       </c>
       <c r="J148" s="19"/>
       <c r="K148" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I148,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L148" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I148,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M148" s="19"/>
@@ -10115,11 +10115,11 @@
       </c>
       <c r="J149" s="12"/>
       <c r="K149" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I149,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L149" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I149,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M149" s="12"/>
@@ -10159,11 +10159,11 @@
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I150,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L150" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I150,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M150" s="19"/>
@@ -10203,11 +10203,11 @@
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I151,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L151" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I151,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M151" s="12"/>
@@ -10247,11 +10247,11 @@
       </c>
       <c r="J152" s="12"/>
       <c r="K152" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I152,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L152" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I152,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M152" s="12"/>
@@ -10293,11 +10293,11 @@
         <v>4</v>
       </c>
       <c r="K153" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I153,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L153" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I153,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M153" s="19"/>
@@ -10339,11 +10339,11 @@
         <v>4</v>
       </c>
       <c r="K154" s="12" t="str">
-        <f>CONCATENATE("chill",LEFT(I154,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L154" s="12" t="str">
-        <f>CONCATENATE("time",RIGHT(I154,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M154" s="12"/>
@@ -10385,11 +10385,11 @@
         <v>3</v>
       </c>
       <c r="K155" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I155,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L155" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I155,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
       <c r="M155" s="19"/>
@@ -10431,11 +10431,11 @@
         <v>3</v>
       </c>
       <c r="K156" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I156,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L156" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I156,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
@@ -10471,11 +10471,11 @@
         <v>3</v>
       </c>
       <c r="K157" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I157,1))</f>
+        <f t="shared" si="4"/>
         <v>chill1</v>
       </c>
       <c r="L157" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I157,1))</f>
+        <f t="shared" si="5"/>
         <v>time3</v>
       </c>
     </row>
@@ -10509,11 +10509,11 @@
       </c>
       <c r="J158" s="19"/>
       <c r="K158" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I158,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L158" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I158,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M158" s="19"/>
@@ -10552,11 +10552,11 @@
         <v>248</v>
       </c>
       <c r="K159" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I159,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L159" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I159,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10589,11 +10589,11 @@
         <v>248</v>
       </c>
       <c r="K160" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I160,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L160" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I160,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10627,11 +10627,11 @@
       </c>
       <c r="J161" s="19"/>
       <c r="K161" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I161,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L161" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I161,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M161" s="19"/>
@@ -10670,11 +10670,11 @@
         <v>248</v>
       </c>
       <c r="K162" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I162,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L162" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I162,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10707,11 +10707,11 @@
         <v>248</v>
       </c>
       <c r="K163" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I163,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L163" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I163,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10745,11 +10745,11 @@
       </c>
       <c r="J164" s="19"/>
       <c r="K164" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I164,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L164" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I164,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M164" s="19"/>
@@ -10788,11 +10788,11 @@
         <v>248</v>
       </c>
       <c r="K165" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I165,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L165" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I165,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10825,11 +10825,11 @@
         <v>248</v>
       </c>
       <c r="K166" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I166,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L166" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I166,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10863,11 +10863,11 @@
       </c>
       <c r="J167" s="19"/>
       <c r="K167" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I167,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L167" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I167,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M167" s="19"/>
@@ -10906,11 +10906,11 @@
         <v>248</v>
       </c>
       <c r="K168" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I168,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L168" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I168,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10943,11 +10943,11 @@
         <v>248</v>
       </c>
       <c r="K169" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I169,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L169" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I169,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -10981,11 +10981,11 @@
       </c>
       <c r="J170" s="19"/>
       <c r="K170" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I170,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L170" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I170,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M170" s="19"/>
@@ -11024,11 +11024,11 @@
         <v>248</v>
       </c>
       <c r="K171" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I171,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L171" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I171,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11061,11 +11061,11 @@
         <v>248</v>
       </c>
       <c r="K172" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I172,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L172" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I172,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11099,11 +11099,11 @@
       </c>
       <c r="J173" s="19"/>
       <c r="K173" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I173,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L173" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I173,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M173" s="19"/>
@@ -11142,11 +11142,11 @@
         <v>248</v>
       </c>
       <c r="K174" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I174,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L174" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I174,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11179,11 +11179,11 @@
         <v>248</v>
       </c>
       <c r="K175" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I175,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L175" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I175,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11217,11 +11217,11 @@
       </c>
       <c r="J176" s="19"/>
       <c r="K176" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I176,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L176" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I176,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M176" s="19"/>
@@ -11260,11 +11260,11 @@
         <v>248</v>
       </c>
       <c r="K177" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I177,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L177" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I177,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11297,11 +11297,11 @@
         <v>248</v>
       </c>
       <c r="K178" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I178,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L178" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I178,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11335,11 +11335,11 @@
       </c>
       <c r="J179" s="19"/>
       <c r="K179" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I179,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L179" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I179,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M179" s="19"/>
@@ -11378,11 +11378,11 @@
         <v>248</v>
       </c>
       <c r="K180" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I180,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L180" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I180,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11415,11 +11415,11 @@
         <v>248</v>
       </c>
       <c r="K181" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I181,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L181" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I181,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11453,11 +11453,11 @@
       </c>
       <c r="J182" s="19"/>
       <c r="K182" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I182,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L182" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I182,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M182" s="19"/>
@@ -11496,11 +11496,11 @@
         <v>248</v>
       </c>
       <c r="K183" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I183,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L183" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I183,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11533,11 +11533,11 @@
         <v>248</v>
       </c>
       <c r="K184" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I184,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L184" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I184,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11571,11 +11571,11 @@
       </c>
       <c r="J185" s="19"/>
       <c r="K185" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I185,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L185" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I185,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M185" s="19"/>
@@ -11614,11 +11614,11 @@
         <v>248</v>
       </c>
       <c r="K186" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I186,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L186" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I186,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11651,11 +11651,11 @@
         <v>248</v>
       </c>
       <c r="K187" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I187,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L187" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I187,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11689,11 +11689,11 @@
       </c>
       <c r="J188" s="19"/>
       <c r="K188" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I188,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L188" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I188,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M188" s="19"/>
@@ -11732,11 +11732,11 @@
         <v>248</v>
       </c>
       <c r="K189" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I189,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L189" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I189,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11769,11 +11769,11 @@
         <v>248</v>
       </c>
       <c r="K190" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I190,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L190" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I190,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="J191" s="19"/>
       <c r="K191" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I191,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L191" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I191,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
       <c r="M191" s="19"/>
@@ -11850,11 +11850,11 @@
         <v>248</v>
       </c>
       <c r="K192" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I192,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L192" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I192,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11887,11 +11887,11 @@
         <v>248</v>
       </c>
       <c r="K193" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I193,1))</f>
+        <f t="shared" si="4"/>
         <v>chill2</v>
       </c>
       <c r="L193" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I193,1))</f>
+        <f t="shared" si="5"/>
         <v>time1</v>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
       </c>
       <c r="J194" s="19"/>
       <c r="K194" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I194,1))</f>
+        <f t="shared" ref="K194:K257" si="6">CONCATENATE("chill",LEFT(I194,1))</f>
         <v>chill2</v>
       </c>
       <c r="L194" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I194,1))</f>
+        <f t="shared" ref="L194:L257" si="7">CONCATENATE("time",RIGHT(I194,1))</f>
         <v>time1</v>
       </c>
       <c r="M194" s="19"/>
@@ -11968,11 +11968,11 @@
         <v>248</v>
       </c>
       <c r="K195" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I195,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L195" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I195,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12005,11 +12005,11 @@
         <v>248</v>
       </c>
       <c r="K196" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I196,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L196" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I196,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12043,11 +12043,11 @@
       </c>
       <c r="J197" s="19"/>
       <c r="K197" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I197,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L197" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I197,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="M197" s="19"/>
@@ -12086,11 +12086,11 @@
         <v>248</v>
       </c>
       <c r="K198" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I198,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L198" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I198,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12123,11 +12123,11 @@
         <v>248</v>
       </c>
       <c r="K199" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I199,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L199" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I199,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12161,11 +12161,11 @@
       </c>
       <c r="J200" s="19"/>
       <c r="K200" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I200,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L200" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I200,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="M200" s="19"/>
@@ -12204,11 +12204,11 @@
         <v>248</v>
       </c>
       <c r="K201" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I201,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L201" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I201,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12241,11 +12241,11 @@
         <v>248</v>
       </c>
       <c r="K202" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I202,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L202" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I202,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12279,11 +12279,11 @@
       </c>
       <c r="J203" s="19"/>
       <c r="K203" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I203,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L203" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I203,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
       <c r="M203" s="19"/>
@@ -12322,11 +12322,11 @@
         <v>248</v>
       </c>
       <c r="K204" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I204,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L204" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I204,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12359,11 +12359,11 @@
         <v>248</v>
       </c>
       <c r="K205" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I205,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L205" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I205,1))</f>
+        <f t="shared" si="7"/>
         <v>time1</v>
       </c>
     </row>
@@ -12397,11 +12397,11 @@
       </c>
       <c r="J206" s="19"/>
       <c r="K206" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I206,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L206" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I206,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M206" s="19"/>
@@ -12440,11 +12440,11 @@
         <v>240</v>
       </c>
       <c r="K207" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I207,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L207" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I207,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12477,11 +12477,11 @@
         <v>240</v>
       </c>
       <c r="K208" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I208,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L208" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I208,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12515,11 +12515,11 @@
       </c>
       <c r="J209" s="19"/>
       <c r="K209" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I209,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L209" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I209,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M209" s="19"/>
@@ -12558,11 +12558,11 @@
         <v>240</v>
       </c>
       <c r="K210" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I210,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L210" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I210,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12595,11 +12595,11 @@
         <v>240</v>
       </c>
       <c r="K211" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I211,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L211" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I211,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12633,11 +12633,11 @@
       </c>
       <c r="J212" s="19"/>
       <c r="K212" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I212,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L212" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I212,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M212" s="19"/>
@@ -12676,11 +12676,11 @@
         <v>240</v>
       </c>
       <c r="K213" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I213,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L213" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I213,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12713,11 +12713,11 @@
         <v>240</v>
       </c>
       <c r="K214" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I214,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L214" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I214,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12751,11 +12751,11 @@
       </c>
       <c r="J215" s="19"/>
       <c r="K215" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I215,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L215" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I215,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M215" s="19"/>
@@ -12794,11 +12794,11 @@
         <v>240</v>
       </c>
       <c r="K216" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I216,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L216" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I216,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12831,11 +12831,11 @@
         <v>240</v>
       </c>
       <c r="K217" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I217,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L217" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I217,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12869,11 +12869,11 @@
       </c>
       <c r="J218" s="19"/>
       <c r="K218" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I218,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L218" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I218,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M218" s="19"/>
@@ -12912,11 +12912,11 @@
         <v>240</v>
       </c>
       <c r="K219" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I219,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L219" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I219,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12949,11 +12949,11 @@
         <v>240</v>
       </c>
       <c r="K220" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I220,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L220" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I220,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -12987,11 +12987,11 @@
       </c>
       <c r="J221" s="19"/>
       <c r="K221" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I221,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L221" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I221,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M221" s="19"/>
@@ -13030,11 +13030,11 @@
         <v>240</v>
       </c>
       <c r="K222" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I222,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L222" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I222,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13068,11 +13068,11 @@
       </c>
       <c r="J223" s="19"/>
       <c r="K223" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I223,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L223" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I223,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M223" s="19"/>
@@ -13111,11 +13111,11 @@
         <v>240</v>
       </c>
       <c r="K224" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I224,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L224" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I224,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13148,11 +13148,11 @@
         <v>240</v>
       </c>
       <c r="K225" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I225,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L225" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I225,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13186,11 +13186,11 @@
       </c>
       <c r="J226" s="19"/>
       <c r="K226" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I226,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L226" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I226,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M226" s="19"/>
@@ -13229,11 +13229,11 @@
         <v>240</v>
       </c>
       <c r="K227" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I227,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L227" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I227,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13266,11 +13266,11 @@
         <v>240</v>
       </c>
       <c r="K228" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I228,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L228" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I228,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13304,11 +13304,11 @@
       </c>
       <c r="J229" s="19"/>
       <c r="K229" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I229,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L229" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I229,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M229" s="19"/>
@@ -13347,11 +13347,11 @@
         <v>240</v>
       </c>
       <c r="K230" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I230,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L230" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I230,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13384,11 +13384,11 @@
         <v>240</v>
       </c>
       <c r="K231" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I231,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L231" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I231,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="J232" s="19"/>
       <c r="K232" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I232,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L232" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I232,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M232" s="19"/>
@@ -13465,11 +13465,11 @@
         <v>240</v>
       </c>
       <c r="K233" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I233,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L233" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I233,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13502,11 +13502,11 @@
         <v>240</v>
       </c>
       <c r="K234" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I234,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L234" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I234,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13540,11 +13540,11 @@
       </c>
       <c r="J235" s="19"/>
       <c r="K235" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I235,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L235" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I235,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M235" s="19"/>
@@ -13583,11 +13583,11 @@
         <v>240</v>
       </c>
       <c r="K236" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I236,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L236" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I236,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13620,11 +13620,11 @@
         <v>240</v>
       </c>
       <c r="K237" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I237,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L237" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I237,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13658,11 +13658,11 @@
       </c>
       <c r="J238" s="19"/>
       <c r="K238" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I238,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L238" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I238,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M238" s="19"/>
@@ -13701,11 +13701,11 @@
         <v>240</v>
       </c>
       <c r="K239" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I239,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L239" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I239,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13738,11 +13738,11 @@
         <v>240</v>
       </c>
       <c r="K240" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I240,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L240" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I240,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13776,11 +13776,11 @@
       </c>
       <c r="J241" s="19"/>
       <c r="K241" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I241,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L241" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I241,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M241" s="19"/>
@@ -13819,11 +13819,11 @@
         <v>240</v>
       </c>
       <c r="K242" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I242,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L242" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I242,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13856,11 +13856,11 @@
         <v>240</v>
       </c>
       <c r="K243" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I243,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L243" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I243,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13894,11 +13894,11 @@
       </c>
       <c r="J244" s="19"/>
       <c r="K244" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I244,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L244" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I244,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M244" s="19"/>
@@ -13937,11 +13937,11 @@
         <v>240</v>
       </c>
       <c r="K245" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I245,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L245" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I245,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -13974,11 +13974,11 @@
         <v>240</v>
       </c>
       <c r="K246" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I246,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L246" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I246,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14012,11 +14012,11 @@
       </c>
       <c r="J247" s="19"/>
       <c r="K247" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I247,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L247" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I247,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M247" s="19"/>
@@ -14055,11 +14055,11 @@
         <v>240</v>
       </c>
       <c r="K248" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I248,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L248" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I248,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14092,11 +14092,11 @@
         <v>240</v>
       </c>
       <c r="K249" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I249,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L249" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I249,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14130,11 +14130,11 @@
       </c>
       <c r="J250" s="23"/>
       <c r="K250" s="23" t="str">
-        <f>CONCATENATE("chill",LEFT(I250,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L250" s="23" t="str">
-        <f>CONCATENATE("time",RIGHT(I250,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M250" s="23"/>
@@ -14174,11 +14174,11 @@
       </c>
       <c r="J251" s="21"/>
       <c r="K251" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I251,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L251" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I251,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M251" s="21"/>
@@ -14218,11 +14218,11 @@
       </c>
       <c r="J252" s="19"/>
       <c r="K252" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I252,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L252" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I252,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M252" s="19"/>
@@ -14261,11 +14261,11 @@
         <v>240</v>
       </c>
       <c r="K253" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I253,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L253" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I253,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14298,11 +14298,11 @@
         <v>240</v>
       </c>
       <c r="K254" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I254,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L254" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I254,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14336,11 +14336,11 @@
       </c>
       <c r="J255" s="19"/>
       <c r="K255" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I255,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L255" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I255,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
       <c r="M255" s="19"/>
@@ -14379,11 +14379,11 @@
         <v>240</v>
       </c>
       <c r="K256" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I256,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L256" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I256,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14419,11 +14419,11 @@
         <v>5</v>
       </c>
       <c r="K257" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I257,1))</f>
+        <f t="shared" si="6"/>
         <v>chill2</v>
       </c>
       <c r="L257" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I257,1))</f>
+        <f t="shared" si="7"/>
         <v>time2</v>
       </c>
     </row>
@@ -14459,11 +14459,11 @@
         <v>5</v>
       </c>
       <c r="K258" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I258,1))</f>
+        <f t="shared" ref="K258:K321" si="8">CONCATENATE("chill",LEFT(I258,1))</f>
         <v>chill2</v>
       </c>
       <c r="L258" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I258,1))</f>
+        <f t="shared" ref="L258:L321" si="9">CONCATENATE("time",RIGHT(I258,1))</f>
         <v>time2</v>
       </c>
       <c r="M258" s="19"/>
@@ -14505,11 +14505,11 @@
         <v>6</v>
       </c>
       <c r="K259" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I259,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L259" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I259,1))</f>
+        <f t="shared" si="9"/>
         <v>time2</v>
       </c>
     </row>
@@ -14545,11 +14545,11 @@
         <v>6</v>
       </c>
       <c r="K260" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I260,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L260" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I260,1))</f>
+        <f t="shared" si="9"/>
         <v>time2</v>
       </c>
       <c r="M260" s="21"/>
@@ -14588,11 +14588,11 @@
         <v>242</v>
       </c>
       <c r="K261" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I261,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L261" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I261,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14625,11 +14625,11 @@
         <v>242</v>
       </c>
       <c r="K262" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I262,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L262" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I262,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14662,11 +14662,11 @@
         <v>242</v>
       </c>
       <c r="K263" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I263,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L263" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I263,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14699,11 +14699,11 @@
         <v>242</v>
       </c>
       <c r="K264" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I264,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L264" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I264,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14736,11 +14736,11 @@
         <v>242</v>
       </c>
       <c r="K265" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I265,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L265" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I265,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14773,11 +14773,11 @@
         <v>242</v>
       </c>
       <c r="K266" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I266,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L266" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I266,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14810,11 +14810,11 @@
         <v>242</v>
       </c>
       <c r="K267" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I267,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L267" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I267,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14847,11 +14847,11 @@
         <v>242</v>
       </c>
       <c r="K268" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I268,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L268" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I268,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14884,11 +14884,11 @@
         <v>242</v>
       </c>
       <c r="K269" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I269,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L269" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I269,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14921,11 +14921,11 @@
         <v>242</v>
       </c>
       <c r="K270" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I270,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L270" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I270,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14958,11 +14958,11 @@
         <v>242</v>
       </c>
       <c r="K271" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I271,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L271" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I271,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -14995,11 +14995,11 @@
         <v>242</v>
       </c>
       <c r="K272" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I272,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L272" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I272,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15032,11 +15032,11 @@
         <v>242</v>
       </c>
       <c r="K273" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I273,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L273" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I273,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15069,11 +15069,11 @@
         <v>242</v>
       </c>
       <c r="K274" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I274,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L274" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I274,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15106,11 +15106,11 @@
         <v>242</v>
       </c>
       <c r="K275" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I275,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L275" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I275,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15143,11 +15143,11 @@
         <v>242</v>
       </c>
       <c r="K276" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I276,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L276" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I276,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15180,11 +15180,11 @@
         <v>242</v>
       </c>
       <c r="K277" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I277,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L277" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I277,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15217,11 +15217,11 @@
         <v>242</v>
       </c>
       <c r="K278" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I278,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L278" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I278,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15254,11 +15254,11 @@
         <v>242</v>
       </c>
       <c r="K279" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I279,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L279" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I279,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15291,11 +15291,11 @@
         <v>242</v>
       </c>
       <c r="K280" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I280,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L280" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I280,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15328,11 +15328,11 @@
         <v>242</v>
       </c>
       <c r="K281" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I281,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L281" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I281,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15365,11 +15365,11 @@
         <v>242</v>
       </c>
       <c r="K282" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I282,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L282" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I282,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15402,11 +15402,11 @@
         <v>242</v>
       </c>
       <c r="K283" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I283,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L283" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I283,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15439,11 +15439,11 @@
         <v>242</v>
       </c>
       <c r="K284" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I284,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L284" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I284,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15476,11 +15476,11 @@
         <v>242</v>
       </c>
       <c r="K285" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I285,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L285" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I285,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15513,11 +15513,11 @@
         <v>242</v>
       </c>
       <c r="K286" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I286,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L286" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I286,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15550,11 +15550,11 @@
         <v>242</v>
       </c>
       <c r="K287" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I287,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L287" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I287,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15587,11 +15587,11 @@
         <v>242</v>
       </c>
       <c r="K288" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I288,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L288" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I288,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15624,11 +15624,11 @@
         <v>242</v>
       </c>
       <c r="K289" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I289,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L289" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I289,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15661,11 +15661,11 @@
         <v>242</v>
       </c>
       <c r="K290" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I290,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L290" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I290,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15698,11 +15698,11 @@
         <v>242</v>
       </c>
       <c r="K291" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I291,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L291" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I291,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15735,11 +15735,11 @@
         <v>242</v>
       </c>
       <c r="K292" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I292,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L292" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I292,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15772,11 +15772,11 @@
         <v>242</v>
       </c>
       <c r="K293" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I293,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L293" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I293,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15809,11 +15809,11 @@
         <v>242</v>
       </c>
       <c r="K294" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I294,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L294" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I294,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15846,11 +15846,11 @@
         <v>242</v>
       </c>
       <c r="K295" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I295,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L295" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I295,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15883,11 +15883,11 @@
         <v>242</v>
       </c>
       <c r="K296" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I296,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L296" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I296,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15920,11 +15920,11 @@
         <v>242</v>
       </c>
       <c r="K297" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I297,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L297" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I297,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15957,11 +15957,11 @@
         <v>242</v>
       </c>
       <c r="K298" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I298,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L298" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I298,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -15994,11 +15994,11 @@
         <v>242</v>
       </c>
       <c r="K299" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I299,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L299" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I299,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16031,11 +16031,11 @@
         <v>242</v>
       </c>
       <c r="K300" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I300,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L300" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I300,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16068,11 +16068,11 @@
         <v>242</v>
       </c>
       <c r="K301" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I301,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L301" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I301,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16105,11 +16105,11 @@
         <v>242</v>
       </c>
       <c r="K302" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I302,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L302" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I302,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16142,11 +16142,11 @@
         <v>242</v>
       </c>
       <c r="K303" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I303,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L303" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I303,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16179,11 +16179,11 @@
         <v>242</v>
       </c>
       <c r="K304" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I304,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L304" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I304,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16216,11 +16216,11 @@
         <v>242</v>
       </c>
       <c r="K305" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I305,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L305" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I305,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16253,11 +16253,11 @@
         <v>242</v>
       </c>
       <c r="K306" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I306,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L306" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I306,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16290,11 +16290,11 @@
         <v>242</v>
       </c>
       <c r="K307" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I307,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L307" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I307,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16327,11 +16327,11 @@
         <v>242</v>
       </c>
       <c r="K308" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I308,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L308" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I308,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16364,11 +16364,11 @@
         <v>242</v>
       </c>
       <c r="K309" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I309,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L309" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I309,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16401,11 +16401,11 @@
         <v>242</v>
       </c>
       <c r="K310" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I310,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L310" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I310,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16441,11 +16441,11 @@
         <v>7</v>
       </c>
       <c r="K311" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I311,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L311" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I311,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16481,11 +16481,11 @@
         <v>7</v>
       </c>
       <c r="K312" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I312,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L312" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I312,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16521,11 +16521,11 @@
         <v>7</v>
       </c>
       <c r="K313" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I313,1))</f>
+        <f t="shared" si="8"/>
         <v>chill2</v>
       </c>
       <c r="L313" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I313,1))</f>
+        <f t="shared" si="9"/>
         <v>time3</v>
       </c>
     </row>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="J314" s="19"/>
       <c r="K314" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I314,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L314" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I314,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="M314" s="19"/>
@@ -16602,11 +16602,11 @@
         <v>560</v>
       </c>
       <c r="K315" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I315,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L315" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I315,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -16639,11 +16639,11 @@
         <v>560</v>
       </c>
       <c r="K316" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I316,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L316" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I316,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -16677,11 +16677,11 @@
       </c>
       <c r="J317" s="19"/>
       <c r="K317" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I317,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L317" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I317,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="M317" s="19"/>
@@ -16720,11 +16720,11 @@
         <v>560</v>
       </c>
       <c r="K318" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I318,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L318" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I318,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -16757,11 +16757,11 @@
         <v>560</v>
       </c>
       <c r="K319" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I319,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L319" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I319,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -16795,11 +16795,11 @@
       </c>
       <c r="J320" s="19"/>
       <c r="K320" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I320,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L320" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I320,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
       <c r="M320" s="19"/>
@@ -16838,11 +16838,11 @@
         <v>560</v>
       </c>
       <c r="K321" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I321,1))</f>
+        <f t="shared" si="8"/>
         <v>chill4</v>
       </c>
       <c r="L321" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I321,1))</f>
+        <f t="shared" si="9"/>
         <v>time1</v>
       </c>
     </row>
@@ -16875,11 +16875,11 @@
         <v>560</v>
       </c>
       <c r="K322" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I322,1))</f>
+        <f t="shared" ref="K322:K385" si="10">CONCATENATE("chill",LEFT(I322,1))</f>
         <v>chill4</v>
       </c>
       <c r="L322" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I322,1))</f>
+        <f t="shared" ref="L322:L385" si="11">CONCATENATE("time",RIGHT(I322,1))</f>
         <v>time1</v>
       </c>
     </row>
@@ -16913,11 +16913,11 @@
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I323,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L323" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I323,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M323" s="19"/>
@@ -16956,11 +16956,11 @@
         <v>560</v>
       </c>
       <c r="K324" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I324,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L324" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I324,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -16993,11 +16993,11 @@
         <v>560</v>
       </c>
       <c r="K325" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I325,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L325" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I325,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17031,11 +17031,11 @@
       </c>
       <c r="J326" s="19"/>
       <c r="K326" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I326,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L326" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I326,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M326" s="19"/>
@@ -17074,11 +17074,11 @@
         <v>560</v>
       </c>
       <c r="K327" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I327,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L327" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I327,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17111,11 +17111,11 @@
         <v>560</v>
       </c>
       <c r="K328" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I328,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L328" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I328,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17149,11 +17149,11 @@
       </c>
       <c r="J329" s="19"/>
       <c r="K329" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I329,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L329" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I329,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M329" s="19"/>
@@ -17192,11 +17192,11 @@
         <v>560</v>
       </c>
       <c r="K330" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I330,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L330" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I330,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17229,11 +17229,11 @@
         <v>560</v>
       </c>
       <c r="K331" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I331,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L331" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I331,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17267,11 +17267,11 @@
       </c>
       <c r="J332" s="19"/>
       <c r="K332" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I332,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L332" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I332,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M332" s="19"/>
@@ -17310,11 +17310,11 @@
         <v>560</v>
       </c>
       <c r="K333" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I333,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L333" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I333,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17347,11 +17347,11 @@
         <v>560</v>
       </c>
       <c r="K334" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I334,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L334" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I334,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17385,11 +17385,11 @@
       </c>
       <c r="J335" s="19"/>
       <c r="K335" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I335,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L335" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I335,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M335" s="19"/>
@@ -17428,11 +17428,11 @@
         <v>560</v>
       </c>
       <c r="K336" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I336,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L336" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I336,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17465,11 +17465,11 @@
         <v>560</v>
       </c>
       <c r="K337" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I337,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L337" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I337,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17503,11 +17503,11 @@
       </c>
       <c r="J338" s="19"/>
       <c r="K338" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I338,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L338" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I338,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M338" s="19"/>
@@ -17546,11 +17546,11 @@
         <v>560</v>
       </c>
       <c r="K339" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I339,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L339" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I339,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17583,11 +17583,11 @@
         <v>560</v>
       </c>
       <c r="K340" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I340,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L340" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I340,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17621,11 +17621,11 @@
       </c>
       <c r="J341" s="19"/>
       <c r="K341" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I341,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L341" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I341,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M341" s="19"/>
@@ -17664,11 +17664,11 @@
         <v>560</v>
       </c>
       <c r="K342" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I342,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L342" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I342,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17701,11 +17701,11 @@
         <v>560</v>
       </c>
       <c r="K343" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I343,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L343" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I343,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17739,11 +17739,11 @@
       </c>
       <c r="J344" s="19"/>
       <c r="K344" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I344,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L344" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I344,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M344" s="19"/>
@@ -17782,11 +17782,11 @@
         <v>560</v>
       </c>
       <c r="K345" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I345,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L345" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I345,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17819,11 +17819,11 @@
         <v>560</v>
       </c>
       <c r="K346" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I346,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L346" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I346,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17857,11 +17857,11 @@
       </c>
       <c r="J347" s="19"/>
       <c r="K347" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I347,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L347" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I347,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M347" s="19"/>
@@ -17900,11 +17900,11 @@
         <v>560</v>
       </c>
       <c r="K348" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I348,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L348" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I348,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17937,11 +17937,11 @@
         <v>560</v>
       </c>
       <c r="K349" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I349,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L349" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I349,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -17975,11 +17975,11 @@
       </c>
       <c r="J350" s="19"/>
       <c r="K350" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I350,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L350" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I350,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M350" s="19"/>
@@ -18018,11 +18018,11 @@
         <v>560</v>
       </c>
       <c r="K351" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I351,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L351" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I351,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18055,11 +18055,11 @@
         <v>560</v>
       </c>
       <c r="K352" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I352,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L352" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I352,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18093,11 +18093,11 @@
       </c>
       <c r="J353" s="19"/>
       <c r="K353" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I353,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L353" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I353,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M353" s="19"/>
@@ -18136,11 +18136,11 @@
         <v>560</v>
       </c>
       <c r="K354" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I354,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L354" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I354,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18173,11 +18173,11 @@
         <v>560</v>
       </c>
       <c r="K355" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I355,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L355" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I355,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18211,11 +18211,11 @@
       </c>
       <c r="J356" s="19"/>
       <c r="K356" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I356,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L356" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I356,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M356" s="19"/>
@@ -18254,11 +18254,11 @@
         <v>560</v>
       </c>
       <c r="K357" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I357,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L357" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I357,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18291,11 +18291,11 @@
         <v>560</v>
       </c>
       <c r="K358" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I358,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L358" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I358,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18329,11 +18329,11 @@
       </c>
       <c r="J359" s="19"/>
       <c r="K359" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I359,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L359" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I359,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M359" s="19"/>
@@ -18372,11 +18372,11 @@
         <v>560</v>
       </c>
       <c r="K360" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I360,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L360" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I360,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18409,11 +18409,11 @@
         <v>560</v>
       </c>
       <c r="K361" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I361,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L361" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I361,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="J362" s="19"/>
       <c r="K362" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I362,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L362" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I362,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M362" s="19"/>
@@ -18490,11 +18490,11 @@
         <v>560</v>
       </c>
       <c r="K363" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I363,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L363" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I363,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18527,11 +18527,11 @@
         <v>560</v>
       </c>
       <c r="K364" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I364,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L364" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I364,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18565,11 +18565,11 @@
       </c>
       <c r="J365" s="19"/>
       <c r="K365" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I365,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L365" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I365,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M365" s="19"/>
@@ -18608,11 +18608,11 @@
         <v>560</v>
       </c>
       <c r="K366" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I366,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L366" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I366,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18645,11 +18645,11 @@
         <v>560</v>
       </c>
       <c r="K367" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I367,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L367" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I367,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18683,11 +18683,11 @@
       </c>
       <c r="J368" s="19"/>
       <c r="K368" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I368,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L368" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I368,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M368" s="19"/>
@@ -18726,11 +18726,11 @@
         <v>560</v>
       </c>
       <c r="K369" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I369,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L369" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I369,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18763,11 +18763,11 @@
         <v>560</v>
       </c>
       <c r="K370" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I370,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L370" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I370,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18801,11 +18801,11 @@
       </c>
       <c r="J371" s="19"/>
       <c r="K371" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I371,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L371" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I371,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
       <c r="M371" s="19"/>
@@ -18844,11 +18844,11 @@
         <v>560</v>
       </c>
       <c r="K372" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I372,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L372" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I372,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18881,11 +18881,11 @@
         <v>560</v>
       </c>
       <c r="K373" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I373,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L373" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I373,1))</f>
+        <f t="shared" si="11"/>
         <v>time1</v>
       </c>
     </row>
@@ -18919,11 +18919,11 @@
       </c>
       <c r="J374" s="19"/>
       <c r="K374" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I374,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L374" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I374,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M374" s="19"/>
@@ -18963,11 +18963,11 @@
       </c>
       <c r="J375" s="21"/>
       <c r="K375" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I375,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L375" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I375,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M375" s="21"/>
@@ -19006,11 +19006,11 @@
         <v>566</v>
       </c>
       <c r="K376" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I376,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L376" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I376,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -19044,11 +19044,11 @@
       </c>
       <c r="J377" s="19"/>
       <c r="K377" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I377,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L377" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I377,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M377" s="19"/>
@@ -19088,11 +19088,11 @@
       </c>
       <c r="J378" s="21"/>
       <c r="K378" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I378,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L378" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I378,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M378" s="21"/>
@@ -19131,11 +19131,11 @@
         <v>566</v>
       </c>
       <c r="K379" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I379,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L379" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I379,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -19169,11 +19169,11 @@
       </c>
       <c r="J380" s="19"/>
       <c r="K380" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I380,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L380" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I380,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M380" s="19"/>
@@ -19213,11 +19213,11 @@
       </c>
       <c r="J381" s="21"/>
       <c r="K381" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I381,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L381" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I381,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M381" s="21"/>
@@ -19256,11 +19256,11 @@
         <v>566</v>
       </c>
       <c r="K382" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I382,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L382" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I382,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -19294,11 +19294,11 @@
       </c>
       <c r="J383" s="19"/>
       <c r="K383" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I383,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L383" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I383,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M383" s="19"/>
@@ -19338,11 +19338,11 @@
       </c>
       <c r="J384" s="21"/>
       <c r="K384" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I384,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L384" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I384,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
       <c r="M384" s="21"/>
@@ -19381,11 +19381,11 @@
         <v>566</v>
       </c>
       <c r="K385" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I385,1))</f>
+        <f t="shared" si="10"/>
         <v>chill4</v>
       </c>
       <c r="L385" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I385,1))</f>
+        <f t="shared" si="11"/>
         <v>time2</v>
       </c>
     </row>
@@ -19419,11 +19419,11 @@
       </c>
       <c r="J386" s="19"/>
       <c r="K386" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I386,1))</f>
+        <f t="shared" ref="K386:K449" si="12">CONCATENATE("chill",LEFT(I386,1))</f>
         <v>chill4</v>
       </c>
       <c r="L386" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I386,1))</f>
+        <f t="shared" ref="L386:L449" si="13">CONCATENATE("time",RIGHT(I386,1))</f>
         <v>time2</v>
       </c>
       <c r="M386" s="19"/>
@@ -19463,11 +19463,11 @@
       </c>
       <c r="J387" s="21"/>
       <c r="K387" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I387,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L387" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I387,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M387" s="21"/>
@@ -19506,11 +19506,11 @@
         <v>566</v>
       </c>
       <c r="K388" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I388,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L388" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I388,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -19544,11 +19544,11 @@
       </c>
       <c r="J389" s="19"/>
       <c r="K389" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I389,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L389" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I389,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M389" s="19"/>
@@ -19588,11 +19588,11 @@
       </c>
       <c r="J390" s="21"/>
       <c r="K390" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I390,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L390" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I390,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M390" s="21"/>
@@ -19631,11 +19631,11 @@
         <v>566</v>
       </c>
       <c r="K391" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I391,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L391" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I391,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -19669,11 +19669,11 @@
       </c>
       <c r="J392" s="19"/>
       <c r="K392" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I392,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L392" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I392,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M392" s="19"/>
@@ -19713,11 +19713,11 @@
       </c>
       <c r="J393" s="21"/>
       <c r="K393" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I393,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L393" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I393,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M393" s="21"/>
@@ -19756,11 +19756,11 @@
         <v>566</v>
       </c>
       <c r="K394" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I394,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L394" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I394,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -19794,11 +19794,11 @@
       </c>
       <c r="J395" s="19"/>
       <c r="K395" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I395,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L395" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I395,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M395" s="19"/>
@@ -19838,11 +19838,11 @@
       </c>
       <c r="J396" s="21"/>
       <c r="K396" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I396,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L396" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I396,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M396" s="21"/>
@@ -19881,11 +19881,11 @@
         <v>566</v>
       </c>
       <c r="K397" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I397,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L397" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I397,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -19919,11 +19919,11 @@
       </c>
       <c r="J398" s="19"/>
       <c r="K398" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I398,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L398" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I398,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M398" s="19"/>
@@ -19963,11 +19963,11 @@
       </c>
       <c r="J399" s="21"/>
       <c r="K399" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I399,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L399" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I399,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M399" s="21"/>
@@ -20006,11 +20006,11 @@
         <v>566</v>
       </c>
       <c r="K400" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I400,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L400" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I400,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20044,11 +20044,11 @@
       </c>
       <c r="J401" s="19"/>
       <c r="K401" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I401,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L401" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I401,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M401" s="19"/>
@@ -20088,11 +20088,11 @@
       </c>
       <c r="J402" s="21"/>
       <c r="K402" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I402,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L402" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I402,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M402" s="21"/>
@@ -20131,11 +20131,11 @@
         <v>566</v>
       </c>
       <c r="K403" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I403,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L403" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I403,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20169,11 +20169,11 @@
       </c>
       <c r="J404" s="19"/>
       <c r="K404" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I404,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L404" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I404,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M404" s="19"/>
@@ -20213,11 +20213,11 @@
       </c>
       <c r="J405" s="21"/>
       <c r="K405" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I405,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L405" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I405,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M405" s="21"/>
@@ -20256,11 +20256,11 @@
         <v>566</v>
       </c>
       <c r="K406" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I406,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L406" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I406,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20294,11 +20294,11 @@
       </c>
       <c r="J407" s="19"/>
       <c r="K407" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I407,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L407" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I407,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M407" s="19"/>
@@ -20338,11 +20338,11 @@
       </c>
       <c r="J408" s="21"/>
       <c r="K408" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I408,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L408" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I408,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M408" s="21"/>
@@ -20381,11 +20381,11 @@
         <v>566</v>
       </c>
       <c r="K409" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I409,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L409" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I409,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20421,11 +20421,11 @@
         <v>8</v>
       </c>
       <c r="K410" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I410,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L410" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I410,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M410" s="19"/>
@@ -20467,11 +20467,11 @@
         <v>8</v>
       </c>
       <c r="K411" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I411,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L411" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I411,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M411" s="21"/>
@@ -20513,11 +20513,11 @@
         <v>8</v>
       </c>
       <c r="K412" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I412,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L412" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I412,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20553,11 +20553,11 @@
         <v>9</v>
       </c>
       <c r="K413" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I413,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L413" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I413,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M413" s="19"/>
@@ -20599,11 +20599,11 @@
         <v>9</v>
       </c>
       <c r="K414" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I414,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L414" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I414,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M414" s="21"/>
@@ -20645,11 +20645,11 @@
         <v>9</v>
       </c>
       <c r="K415" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I415,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L415" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I415,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20685,11 +20685,11 @@
         <v>10</v>
       </c>
       <c r="K416" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I416,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L416" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I416,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M416" s="19"/>
@@ -20731,11 +20731,11 @@
         <v>10</v>
       </c>
       <c r="K417" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I417,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L417" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I417,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M417" s="21"/>
@@ -20777,11 +20777,11 @@
         <v>10</v>
       </c>
       <c r="K418" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I418,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L418" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I418,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20817,11 +20817,11 @@
         <v>11</v>
       </c>
       <c r="K419" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I419,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L419" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I419,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M419" s="19"/>
@@ -20863,11 +20863,11 @@
         <v>11</v>
       </c>
       <c r="K420" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I420,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L420" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I420,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
       <c r="M420" s="21"/>
@@ -20909,11 +20909,11 @@
         <v>11</v>
       </c>
       <c r="K421" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I421,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L421" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I421,1))</f>
+        <f t="shared" si="13"/>
         <v>time2</v>
       </c>
     </row>
@@ -20946,11 +20946,11 @@
         <v>562</v>
       </c>
       <c r="K422" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I422,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L422" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I422,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -20984,11 +20984,11 @@
       </c>
       <c r="J423" s="21"/>
       <c r="K423" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I423,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L423" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I423,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M423" s="21"/>
@@ -21028,11 +21028,11 @@
       </c>
       <c r="J424" s="21"/>
       <c r="K424" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I424,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L424" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I424,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M424" s="21"/>
@@ -21071,11 +21071,11 @@
         <v>562</v>
       </c>
       <c r="K425" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I425,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L425" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I425,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21109,11 +21109,11 @@
       </c>
       <c r="J426" s="21"/>
       <c r="K426" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I426,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L426" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I426,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M426" s="21"/>
@@ -21152,11 +21152,11 @@
         <v>562</v>
       </c>
       <c r="K427" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I427,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L427" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I427,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21190,11 +21190,11 @@
       </c>
       <c r="J428" s="21"/>
       <c r="K428" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I428,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L428" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I428,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M428" s="21"/>
@@ -21234,11 +21234,11 @@
       </c>
       <c r="J429" s="21"/>
       <c r="K429" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I429,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L429" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I429,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M429" s="21"/>
@@ -21277,11 +21277,11 @@
         <v>562</v>
       </c>
       <c r="K430" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I430,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L430" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I430,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21315,11 +21315,11 @@
       </c>
       <c r="J431" s="21"/>
       <c r="K431" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I431,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L431" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I431,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
       <c r="M431" s="21"/>
@@ -21358,11 +21358,11 @@
         <v>562</v>
       </c>
       <c r="K432" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I432,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L432" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I432,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21395,11 +21395,11 @@
         <v>562</v>
       </c>
       <c r="K433" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I433,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L433" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I433,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21432,11 +21432,11 @@
         <v>562</v>
       </c>
       <c r="K434" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I434,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L434" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I434,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21469,11 +21469,11 @@
         <v>562</v>
       </c>
       <c r="K435" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I435,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L435" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I435,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21506,11 +21506,11 @@
         <v>562</v>
       </c>
       <c r="K436" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I436,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L436" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I436,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21543,11 +21543,11 @@
         <v>562</v>
       </c>
       <c r="K437" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I437,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L437" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I437,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21580,11 +21580,11 @@
         <v>562</v>
       </c>
       <c r="K438" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I438,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L438" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I438,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21617,11 +21617,11 @@
         <v>562</v>
       </c>
       <c r="K439" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I439,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L439" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I439,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21654,11 +21654,11 @@
         <v>562</v>
       </c>
       <c r="K440" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I440,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L440" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I440,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21691,11 +21691,11 @@
         <v>562</v>
       </c>
       <c r="K441" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I441,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L441" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I441,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21728,11 +21728,11 @@
         <v>562</v>
       </c>
       <c r="K442" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I442,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L442" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I442,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21765,11 +21765,11 @@
         <v>562</v>
       </c>
       <c r="K443" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I443,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L443" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I443,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21802,11 +21802,11 @@
         <v>562</v>
       </c>
       <c r="K444" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I444,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L444" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I444,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21839,11 +21839,11 @@
         <v>562</v>
       </c>
       <c r="K445" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I445,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L445" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I445,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21876,11 +21876,11 @@
         <v>562</v>
       </c>
       <c r="K446" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I446,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L446" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I446,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21913,11 +21913,11 @@
         <v>562</v>
       </c>
       <c r="K447" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I447,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L447" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I447,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21950,11 +21950,11 @@
         <v>562</v>
       </c>
       <c r="K448" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I448,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L448" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I448,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -21987,11 +21987,11 @@
         <v>562</v>
       </c>
       <c r="K449" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I449,1))</f>
+        <f t="shared" si="12"/>
         <v>chill4</v>
       </c>
       <c r="L449" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I449,1))</f>
+        <f t="shared" si="13"/>
         <v>time3</v>
       </c>
     </row>
@@ -22024,11 +22024,11 @@
         <v>562</v>
       </c>
       <c r="K450" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I450,1))</f>
+        <f t="shared" ref="K450:K513" si="14">CONCATENATE("chill",LEFT(I450,1))</f>
         <v>chill4</v>
       </c>
       <c r="L450" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I450,1))</f>
+        <f t="shared" ref="L450:L513" si="15">CONCATENATE("time",RIGHT(I450,1))</f>
         <v>time3</v>
       </c>
     </row>
@@ -22061,11 +22061,11 @@
         <v>562</v>
       </c>
       <c r="K451" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I451,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L451" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I451,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22098,11 +22098,11 @@
         <v>562</v>
       </c>
       <c r="K452" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I452,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L452" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I452,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22135,11 +22135,11 @@
         <v>562</v>
       </c>
       <c r="K453" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I453,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L453" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I453,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22172,11 +22172,11 @@
         <v>562</v>
       </c>
       <c r="K454" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I454,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L454" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I454,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22209,11 +22209,11 @@
         <v>562</v>
       </c>
       <c r="K455" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I455,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L455" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I455,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22246,11 +22246,11 @@
         <v>562</v>
       </c>
       <c r="K456" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I456,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L456" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I456,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22283,11 +22283,11 @@
         <v>562</v>
       </c>
       <c r="K457" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I457,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L457" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I457,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22320,11 +22320,11 @@
         <v>562</v>
       </c>
       <c r="K458" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I458,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L458" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I458,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22357,11 +22357,11 @@
         <v>562</v>
       </c>
       <c r="K459" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I459,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L459" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I459,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22394,11 +22394,11 @@
         <v>562</v>
       </c>
       <c r="K460" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I460,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L460" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I460,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22431,11 +22431,11 @@
         <v>562</v>
       </c>
       <c r="K461" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I461,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L461" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I461,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22468,11 +22468,11 @@
         <v>562</v>
       </c>
       <c r="K462" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I462,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L462" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I462,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22505,11 +22505,11 @@
         <v>562</v>
       </c>
       <c r="K463" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I463,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L463" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I463,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22542,11 +22542,11 @@
         <v>562</v>
       </c>
       <c r="K464" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I464,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L464" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I464,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22579,11 +22579,11 @@
         <v>562</v>
       </c>
       <c r="K465" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I465,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L465" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I465,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22616,11 +22616,11 @@
         <v>562</v>
       </c>
       <c r="K466" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I466,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L466" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I466,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22653,11 +22653,11 @@
         <v>562</v>
       </c>
       <c r="K467" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I467,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L467" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I467,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22690,11 +22690,11 @@
         <v>562</v>
       </c>
       <c r="K468" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I468,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L468" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I468,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22718,11 +22718,11 @@
         <v>562</v>
       </c>
       <c r="K469" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I469,1))</f>
+        <f t="shared" si="14"/>
         <v>chill4</v>
       </c>
       <c r="L469" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I469,1))</f>
+        <f t="shared" si="15"/>
         <v>time3</v>
       </c>
     </row>
@@ -22756,11 +22756,11 @@
       </c>
       <c r="J470" s="19"/>
       <c r="K470" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I470,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L470" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I470,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M470" s="19"/>
@@ -22799,11 +22799,11 @@
         <v>400</v>
       </c>
       <c r="K471" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I471,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L471" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I471,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -22836,11 +22836,11 @@
         <v>400</v>
       </c>
       <c r="K472" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I472,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L472" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I472,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -22874,11 +22874,11 @@
       </c>
       <c r="J473" s="19"/>
       <c r="K473" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I473,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L473" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I473,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M473" s="19"/>
@@ -22917,11 +22917,11 @@
         <v>400</v>
       </c>
       <c r="K474" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I474,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L474" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I474,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -22954,11 +22954,11 @@
         <v>400</v>
       </c>
       <c r="K475" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I475,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L475" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I475,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -22992,11 +22992,11 @@
       </c>
       <c r="J476" s="19"/>
       <c r="K476" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I476,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L476" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I476,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M476" s="19"/>
@@ -23035,11 +23035,11 @@
         <v>400</v>
       </c>
       <c r="K477" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I477,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L477" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I477,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23072,11 +23072,11 @@
         <v>400</v>
       </c>
       <c r="K478" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I478,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L478" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I478,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23110,11 +23110,11 @@
       </c>
       <c r="J479" s="19"/>
       <c r="K479" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I479,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L479" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I479,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M479" s="19"/>
@@ -23153,11 +23153,11 @@
         <v>400</v>
       </c>
       <c r="K480" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I480,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L480" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I480,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23190,11 +23190,11 @@
         <v>400</v>
       </c>
       <c r="K481" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I481,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L481" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I481,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23228,11 +23228,11 @@
       </c>
       <c r="J482" s="19"/>
       <c r="K482" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I482,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L482" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I482,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M482" s="19"/>
@@ -23271,11 +23271,11 @@
         <v>400</v>
       </c>
       <c r="K483" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I483,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L483" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I483,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23308,11 +23308,11 @@
         <v>400</v>
       </c>
       <c r="K484" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I484,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L484" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I484,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23346,11 +23346,11 @@
       </c>
       <c r="J485" s="19"/>
       <c r="K485" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I485,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L485" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I485,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M485" s="19"/>
@@ -23389,11 +23389,11 @@
         <v>400</v>
       </c>
       <c r="K486" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I486,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L486" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I486,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23426,11 +23426,11 @@
         <v>400</v>
       </c>
       <c r="K487" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I487,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L487" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I487,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23464,11 +23464,11 @@
       </c>
       <c r="J488" s="19"/>
       <c r="K488" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I488,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L488" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I488,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M488" s="19"/>
@@ -23507,11 +23507,11 @@
         <v>400</v>
       </c>
       <c r="K489" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I489,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L489" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I489,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23544,11 +23544,11 @@
         <v>400</v>
       </c>
       <c r="K490" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I490,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L490" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I490,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="J491" s="19"/>
       <c r="K491" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I491,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L491" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I491,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M491" s="19"/>
@@ -23625,11 +23625,11 @@
         <v>400</v>
       </c>
       <c r="K492" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I492,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L492" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I492,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23662,11 +23662,11 @@
         <v>400</v>
       </c>
       <c r="K493" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I493,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L493" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I493,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23700,11 +23700,11 @@
       </c>
       <c r="J494" s="19"/>
       <c r="K494" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I494,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L494" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I494,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M494" s="19"/>
@@ -23743,11 +23743,11 @@
         <v>400</v>
       </c>
       <c r="K495" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I495,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L495" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I495,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23780,11 +23780,11 @@
         <v>400</v>
       </c>
       <c r="K496" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I496,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L496" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I496,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23818,11 +23818,11 @@
       </c>
       <c r="J497" s="19"/>
       <c r="K497" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I497,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L497" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I497,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M497" s="19"/>
@@ -23861,11 +23861,11 @@
         <v>400</v>
       </c>
       <c r="K498" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I498,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L498" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I498,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23898,11 +23898,11 @@
         <v>400</v>
       </c>
       <c r="K499" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I499,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L499" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I499,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -23936,11 +23936,11 @@
       </c>
       <c r="J500" s="19"/>
       <c r="K500" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I500,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L500" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I500,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M500" s="19"/>
@@ -23979,11 +23979,11 @@
         <v>400</v>
       </c>
       <c r="K501" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I501,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L501" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I501,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24016,11 +24016,11 @@
         <v>400</v>
       </c>
       <c r="K502" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I502,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L502" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I502,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24054,11 +24054,11 @@
       </c>
       <c r="J503" s="19"/>
       <c r="K503" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I503,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L503" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I503,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M503" s="19"/>
@@ -24097,11 +24097,11 @@
         <v>400</v>
       </c>
       <c r="K504" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I504,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L504" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I504,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24134,11 +24134,11 @@
         <v>400</v>
       </c>
       <c r="K505" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I505,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L505" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I505,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24172,11 +24172,11 @@
       </c>
       <c r="J506" s="19"/>
       <c r="K506" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I506,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L506" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I506,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M506" s="19"/>
@@ -24215,11 +24215,11 @@
         <v>400</v>
       </c>
       <c r="K507" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I507,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L507" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I507,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24252,11 +24252,11 @@
         <v>400</v>
       </c>
       <c r="K508" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I508,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L508" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I508,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24290,11 +24290,11 @@
       </c>
       <c r="J509" s="19"/>
       <c r="K509" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I509,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L509" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I509,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M509" s="19"/>
@@ -24333,11 +24333,11 @@
         <v>400</v>
       </c>
       <c r="K510" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I510,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L510" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I510,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24370,11 +24370,11 @@
         <v>400</v>
       </c>
       <c r="K511" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I511,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L511" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I511,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24408,11 +24408,11 @@
       </c>
       <c r="J512" s="19"/>
       <c r="K512" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I512,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L512" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I512,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
       <c r="M512" s="19"/>
@@ -24451,11 +24451,11 @@
         <v>400</v>
       </c>
       <c r="K513" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I513,1))</f>
+        <f t="shared" si="14"/>
         <v>chill8</v>
       </c>
       <c r="L513" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I513,1))</f>
+        <f t="shared" si="15"/>
         <v>time1</v>
       </c>
     </row>
@@ -24488,11 +24488,11 @@
         <v>400</v>
       </c>
       <c r="K514" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I514,1))</f>
+        <f t="shared" ref="K514:K577" si="16">CONCATENATE("chill",LEFT(I514,1))</f>
         <v>chill8</v>
       </c>
       <c r="L514" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I514,1))</f>
+        <f t="shared" ref="L514:L577" si="17">CONCATENATE("time",RIGHT(I514,1))</f>
         <v>time1</v>
       </c>
     </row>
@@ -24526,11 +24526,11 @@
       </c>
       <c r="J515" s="19"/>
       <c r="K515" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I515,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L515" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I515,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
       <c r="M515" s="19"/>
@@ -24569,11 +24569,11 @@
         <v>400</v>
       </c>
       <c r="K516" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I516,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L516" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I516,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
     </row>
@@ -24606,11 +24606,11 @@
         <v>400</v>
       </c>
       <c r="K517" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I517,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L517" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I517,1))</f>
+        <f t="shared" si="17"/>
         <v>time1</v>
       </c>
     </row>
@@ -24643,11 +24643,11 @@
         <v>402</v>
       </c>
       <c r="K518" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I518,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L518" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I518,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -24681,11 +24681,11 @@
       </c>
       <c r="J519" s="21"/>
       <c r="K519" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I519,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L519" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I519,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M519" s="21"/>
@@ -24725,11 +24725,11 @@
       </c>
       <c r="J520" s="19"/>
       <c r="K520" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I520,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L520" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I520,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M520" s="19"/>
@@ -24768,11 +24768,11 @@
         <v>402</v>
       </c>
       <c r="K521" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I521,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L521" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I521,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -24805,11 +24805,11 @@
         <v>402</v>
       </c>
       <c r="K522" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I522,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L522" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I522,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -24843,11 +24843,11 @@
       </c>
       <c r="J523" s="19"/>
       <c r="K523" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I523,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L523" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I523,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M523" s="19"/>
@@ -24886,11 +24886,11 @@
         <v>402</v>
       </c>
       <c r="K524" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I524,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L524" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I524,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -24923,11 +24923,11 @@
         <v>402</v>
       </c>
       <c r="K525" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I525,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L525" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I525,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -24961,11 +24961,11 @@
       </c>
       <c r="J526" s="19"/>
       <c r="K526" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I526,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L526" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I526,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M526" s="19"/>
@@ -25004,11 +25004,11 @@
         <v>402</v>
       </c>
       <c r="K527" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I527,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L527" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I527,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25041,11 +25041,11 @@
         <v>402</v>
       </c>
       <c r="K528" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I528,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L528" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I528,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25079,11 +25079,11 @@
       </c>
       <c r="J529" s="19"/>
       <c r="K529" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I529,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L529" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I529,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M529" s="19"/>
@@ -25122,11 +25122,11 @@
         <v>402</v>
       </c>
       <c r="K530" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I530,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L530" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I530,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25159,11 +25159,11 @@
         <v>402</v>
       </c>
       <c r="K531" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I531,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L531" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I531,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25197,11 +25197,11 @@
       </c>
       <c r="J532" s="19"/>
       <c r="K532" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I532,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L532" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I532,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M532" s="19"/>
@@ -25240,11 +25240,11 @@
         <v>402</v>
       </c>
       <c r="K533" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I533,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L533" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I533,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25277,11 +25277,11 @@
         <v>402</v>
       </c>
       <c r="K534" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I534,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L534" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I534,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25315,11 +25315,11 @@
       </c>
       <c r="J535" s="19"/>
       <c r="K535" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I535,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L535" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I535,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M535" s="19"/>
@@ -25358,11 +25358,11 @@
         <v>402</v>
       </c>
       <c r="K536" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I536,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L536" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I536,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25396,11 +25396,11 @@
       </c>
       <c r="J537" s="19"/>
       <c r="K537" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I537,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L537" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I537,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M537" s="19"/>
@@ -25439,11 +25439,11 @@
         <v>402</v>
       </c>
       <c r="K538" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I538,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L538" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I538,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25476,11 +25476,11 @@
         <v>402</v>
       </c>
       <c r="K539" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I539,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L539" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I539,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25514,11 +25514,11 @@
       </c>
       <c r="J540" s="19"/>
       <c r="K540" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I540,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L540" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I540,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M540" s="19"/>
@@ -25557,11 +25557,11 @@
         <v>402</v>
       </c>
       <c r="K541" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I541,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L541" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I541,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25597,11 +25597,11 @@
         <v>14</v>
       </c>
       <c r="K542" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I542,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L542" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I542,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25637,11 +25637,11 @@
         <v>13</v>
       </c>
       <c r="K543" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I543,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L543" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I543,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M543" s="19"/>
@@ -25683,11 +25683,11 @@
         <v>13</v>
       </c>
       <c r="K544" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I544,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L544" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I544,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25721,11 +25721,11 @@
       </c>
       <c r="J545" s="19"/>
       <c r="K545" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I545,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L545" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I545,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M545" s="19"/>
@@ -25764,11 +25764,11 @@
         <v>402</v>
       </c>
       <c r="K546" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I546,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L546" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I546,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25801,11 +25801,11 @@
         <v>402</v>
       </c>
       <c r="K547" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I547,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L547" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I547,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25839,11 +25839,11 @@
       </c>
       <c r="J548" s="19"/>
       <c r="K548" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I548,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L548" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I548,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M548" s="19"/>
@@ -25882,11 +25882,11 @@
         <v>402</v>
       </c>
       <c r="K549" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I549,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L549" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I549,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25919,11 +25919,11 @@
         <v>402</v>
       </c>
       <c r="K550" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I550,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L550" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I550,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -25957,11 +25957,11 @@
       </c>
       <c r="J551" s="19"/>
       <c r="K551" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I551,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L551" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I551,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M551" s="19"/>
@@ -26000,11 +26000,11 @@
         <v>402</v>
       </c>
       <c r="K552" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I552,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L552" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I552,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26037,11 +26037,11 @@
         <v>402</v>
       </c>
       <c r="K553" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I553,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L553" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I553,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26075,11 +26075,11 @@
       </c>
       <c r="J554" s="19"/>
       <c r="K554" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I554,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L554" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I554,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M554" s="19"/>
@@ -26118,11 +26118,11 @@
         <v>402</v>
       </c>
       <c r="K555" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I555,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L555" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I555,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26156,11 +26156,11 @@
       </c>
       <c r="J556" s="19"/>
       <c r="K556" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I556,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L556" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I556,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M556" s="19"/>
@@ -26199,11 +26199,11 @@
         <v>402</v>
       </c>
       <c r="K557" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I557,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L557" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I557,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26236,11 +26236,11 @@
         <v>402</v>
       </c>
       <c r="K558" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I558,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L558" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I558,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26274,11 +26274,11 @@
       </c>
       <c r="J559" s="19"/>
       <c r="K559" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I559,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L559" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I559,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M559" s="19"/>
@@ -26317,11 +26317,11 @@
         <v>402</v>
       </c>
       <c r="K560" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I560,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L560" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I560,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26354,11 +26354,11 @@
         <v>402</v>
       </c>
       <c r="K561" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I561,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L561" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I561,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26392,11 +26392,11 @@
       </c>
       <c r="J562" s="19"/>
       <c r="K562" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I562,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L562" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I562,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M562" s="19"/>
@@ -26435,11 +26435,11 @@
         <v>402</v>
       </c>
       <c r="K563" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I563,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L563" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I563,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26473,11 +26473,11 @@
       </c>
       <c r="J564" s="19"/>
       <c r="K564" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I564,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L564" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I564,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M564" s="19"/>
@@ -26516,11 +26516,11 @@
         <v>402</v>
       </c>
       <c r="K565" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I565,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L565" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I565,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26553,11 +26553,11 @@
         <v>402</v>
       </c>
       <c r="K566" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I566,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L566" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I566,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26593,11 +26593,11 @@
         <v>12</v>
       </c>
       <c r="K567" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I567,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L567" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I567,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M567" s="19"/>
@@ -26639,11 +26639,11 @@
         <v>12</v>
       </c>
       <c r="K568" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I568,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L568" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I568,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26679,11 +26679,11 @@
         <v>12</v>
       </c>
       <c r="K569" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I569,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L569" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I569,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
     </row>
@@ -26719,11 +26719,11 @@
         <v>14</v>
       </c>
       <c r="K570" s="21" t="str">
-        <f>CONCATENATE("chill",LEFT(I570,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L570" s="21" t="str">
-        <f>CONCATENATE("time",RIGHT(I570,1))</f>
+        <f t="shared" si="17"/>
         <v>time2</v>
       </c>
       <c r="M570" s="21"/>
@@ -26762,11 +26762,11 @@
         <v>404</v>
       </c>
       <c r="K571" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I571,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L571" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I571,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26799,11 +26799,11 @@
         <v>404</v>
       </c>
       <c r="K572" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I572,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L572" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I572,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26836,11 +26836,11 @@
         <v>404</v>
       </c>
       <c r="K573" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I573,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L573" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I573,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26873,11 +26873,11 @@
         <v>404</v>
       </c>
       <c r="K574" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I574,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L574" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I574,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26910,11 +26910,11 @@
         <v>404</v>
       </c>
       <c r="K575" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I575,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L575" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I575,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26947,11 +26947,11 @@
         <v>404</v>
       </c>
       <c r="K576" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I576,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L576" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I576,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -26984,11 +26984,11 @@
         <v>404</v>
       </c>
       <c r="K577" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I577,1))</f>
+        <f t="shared" si="16"/>
         <v>chill8</v>
       </c>
       <c r="L577" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I577,1))</f>
+        <f t="shared" si="17"/>
         <v>time3</v>
       </c>
     </row>
@@ -27021,11 +27021,11 @@
         <v>404</v>
       </c>
       <c r="K578" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I578,1))</f>
+        <f t="shared" ref="K578:K625" si="18">CONCATENATE("chill",LEFT(I578,1))</f>
         <v>chill8</v>
       </c>
       <c r="L578" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I578,1))</f>
+        <f t="shared" ref="L578:L625" si="19">CONCATENATE("time",RIGHT(I578,1))</f>
         <v>time3</v>
       </c>
     </row>
@@ -27058,11 +27058,11 @@
         <v>404</v>
       </c>
       <c r="K579" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I579,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L579" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I579,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27095,11 +27095,11 @@
         <v>404</v>
       </c>
       <c r="K580" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I580,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L580" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I580,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27132,11 +27132,11 @@
         <v>404</v>
       </c>
       <c r="K581" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I581,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L581" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I581,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27169,11 +27169,11 @@
         <v>404</v>
       </c>
       <c r="K582" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I582,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L582" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I582,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27206,11 +27206,11 @@
         <v>404</v>
       </c>
       <c r="K583" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I583,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L583" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I583,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27243,11 +27243,11 @@
         <v>404</v>
       </c>
       <c r="K584" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I584,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L584" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I584,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27280,11 +27280,11 @@
         <v>404</v>
       </c>
       <c r="K585" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I585,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L585" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I585,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27317,11 +27317,11 @@
         <v>404</v>
       </c>
       <c r="K586" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I586,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L586" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I586,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27354,11 +27354,11 @@
         <v>404</v>
       </c>
       <c r="K587" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I587,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L587" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I587,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27391,11 +27391,11 @@
         <v>404</v>
       </c>
       <c r="K588" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I588,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L588" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I588,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27428,11 +27428,11 @@
         <v>404</v>
       </c>
       <c r="K589" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I589,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L589" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I589,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27465,11 +27465,11 @@
         <v>404</v>
       </c>
       <c r="K590" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I590,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L590" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I590,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27502,11 +27502,11 @@
         <v>404</v>
       </c>
       <c r="K591" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I591,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L591" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I591,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27539,11 +27539,11 @@
         <v>404</v>
       </c>
       <c r="K592" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I592,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L592" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I592,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27576,11 +27576,11 @@
         <v>404</v>
       </c>
       <c r="K593" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I593,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L593" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I593,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27613,11 +27613,11 @@
         <v>404</v>
       </c>
       <c r="K594" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I594,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L594" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I594,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27650,11 +27650,11 @@
         <v>404</v>
       </c>
       <c r="K595" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I595,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L595" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I595,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27687,11 +27687,11 @@
         <v>404</v>
       </c>
       <c r="K596" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I596,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L596" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I596,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27724,11 +27724,11 @@
         <v>404</v>
       </c>
       <c r="K597" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I597,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L597" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I597,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27761,11 +27761,11 @@
         <v>404</v>
       </c>
       <c r="K598" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I598,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L598" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I598,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27798,11 +27798,11 @@
         <v>404</v>
       </c>
       <c r="K599" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I599,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L599" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I599,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27835,11 +27835,11 @@
         <v>404</v>
       </c>
       <c r="K600" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I600,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L600" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I600,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27872,11 +27872,11 @@
         <v>404</v>
       </c>
       <c r="K601" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I601,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L601" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I601,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27909,11 +27909,11 @@
         <v>404</v>
       </c>
       <c r="K602" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I602,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L602" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I602,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27946,11 +27946,11 @@
         <v>404</v>
       </c>
       <c r="K603" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I603,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L603" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I603,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -27983,11 +27983,11 @@
         <v>404</v>
       </c>
       <c r="K604" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I604,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L604" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I604,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28020,11 +28020,11 @@
         <v>404</v>
       </c>
       <c r="K605" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I605,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L605" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I605,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28057,11 +28057,11 @@
         <v>404</v>
       </c>
       <c r="K606" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I606,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L606" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I606,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28094,11 +28094,11 @@
         <v>404</v>
       </c>
       <c r="K607" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I607,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L607" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I607,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28131,11 +28131,11 @@
         <v>404</v>
       </c>
       <c r="K608" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I608,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L608" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I608,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28168,11 +28168,11 @@
         <v>404</v>
       </c>
       <c r="K609" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I609,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L609" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I609,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28205,11 +28205,11 @@
         <v>404</v>
       </c>
       <c r="K610" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I610,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L610" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I610,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28242,11 +28242,11 @@
         <v>404</v>
       </c>
       <c r="K611" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I611,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L611" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I611,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28279,11 +28279,11 @@
         <v>404</v>
       </c>
       <c r="K612" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I612,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L612" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I612,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28316,11 +28316,11 @@
         <v>404</v>
       </c>
       <c r="K613" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I613,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L613" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I613,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28353,11 +28353,11 @@
         <v>404</v>
       </c>
       <c r="K614" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I614,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L614" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I614,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28390,11 +28390,11 @@
         <v>404</v>
       </c>
       <c r="K615" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I615,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L615" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I615,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28427,11 +28427,11 @@
         <v>404</v>
       </c>
       <c r="K616" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I616,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L616" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I616,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28464,11 +28464,11 @@
         <v>404</v>
       </c>
       <c r="K617" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I617,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L617" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I617,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28501,11 +28501,11 @@
         <v>404</v>
       </c>
       <c r="K618" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I618,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L618" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I618,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28538,11 +28538,11 @@
         <v>404</v>
       </c>
       <c r="K619" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I619,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L619" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I619,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28575,11 +28575,11 @@
         <v>15</v>
       </c>
       <c r="K620" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I620,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L620" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I620,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28612,11 +28612,11 @@
         <v>15</v>
       </c>
       <c r="K621" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I621,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L621" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I621,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28649,11 +28649,11 @@
         <v>15</v>
       </c>
       <c r="K622" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I622,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L622" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I622,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28686,11 +28686,11 @@
         <v>16</v>
       </c>
       <c r="K623" s="19" t="str">
-        <f>CONCATENATE("chill",LEFT(I623,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L623" s="19" t="str">
-        <f>CONCATENATE("time",RIGHT(I623,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28723,11 +28723,11 @@
         <v>16</v>
       </c>
       <c r="K624" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I624,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L624" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I624,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28751,11 +28751,11 @@
         <v>404</v>
       </c>
       <c r="K625" s="13" t="str">
-        <f>CONCATENATE("chill",LEFT(I625,1))</f>
+        <f t="shared" si="18"/>
         <v>chill8</v>
       </c>
       <c r="L625" s="13" t="str">
-        <f>CONCATENATE("time",RIGHT(I625,1))</f>
+        <f t="shared" si="19"/>
         <v>time3</v>
       </c>
     </row>
@@ -28786,7 +28786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S833"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
